--- a/res/population.xlsx
+++ b/res/population.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\my-rog\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IUTtravail\cours\excel\Excel20192020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4351D2A-1BF6-444E-B4A0-17860B57C129}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0DCE7D3-0FE5-4404-92AC-0365EDBED002}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="336" windowWidth="15072" windowHeight="9480"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -409,14 +409,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
     <col min="2" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
